--- a/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/nr-rm-jdv-148/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T14:22:16+00:00</t>
+    <t>2024-12-18T14:23:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5036,7 +5036,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>122</v>
@@ -15971,7 +15971,7 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="Y112" t="s" s="2">
         <v>676</v>
